--- a/JeffG/scrapeAvis.xlsx
+++ b/JeffG/scrapeAvis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\DEV\Upwork\JeffG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WRSPOL\Documents\Files\DEV\Upwork\JeffG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549858D5-F679-4C93-AEC5-A867F382C1EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE92BE-13E4-4643-A378-7307342C59AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34635" yWindow="690" windowWidth="21630" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Location</t>
   </si>
@@ -53,14 +53,87 @@
   </si>
   <si>
     <t>VIE</t>
+  </si>
+  <si>
+    <t>Vienna Airport</t>
+  </si>
+  <si>
+    <t>Economy Manual</t>
+  </si>
+  <si>
+    <t>SEAT Ibiza or similar</t>
+  </si>
+  <si>
+    <t>Compact Manual</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz A Klasse or similar</t>
+  </si>
+  <si>
+    <t>Compact Wagon Manual</t>
+  </si>
+  <si>
+    <t>SEAT Leon ST or similar</t>
+  </si>
+  <si>
+    <t>Seat Leon (GPS) or similar</t>
+  </si>
+  <si>
+    <t>Compact</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz B Klasse or similar</t>
+  </si>
+  <si>
+    <t>Intermediate Manual</t>
+  </si>
+  <si>
+    <t>SEAT Ateca or similar</t>
+  </si>
+  <si>
+    <t>Intermediate Wagon Manual</t>
+  </si>
+  <si>
+    <t>Skoda Octavia Combi or similar</t>
+  </si>
+  <si>
+    <t>Intermediate Wagon</t>
+  </si>
+  <si>
+    <t>Intermediate SUV Manual</t>
+  </si>
+  <si>
+    <t>BMW X1 4x4 or similar</t>
+  </si>
+  <si>
+    <t>Standard Wagon Manual</t>
+  </si>
+  <si>
+    <t>Skoda Superb Combi or similar</t>
+  </si>
+  <si>
+    <t>Standard SUV Manual</t>
+  </si>
+  <si>
+    <t>Skoda Kodiaq 4x4 or similar</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Full Size Van</t>
+  </si>
+  <si>
+    <t>Seat Alhambra or similar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,12 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -404,13 +478,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -445,18 +519,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,75 +556,317 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="F13" s="5"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5">
+        <v>911.52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5">
+        <v>972.97</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5">
+        <v>992.43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1070.26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1070.26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1115.3699999999999</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1268.1600000000001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1294.04</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1338.44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1622.85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1673.05</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2806.66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
